--- a/���� ��.xlsx
+++ b/���� ��.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="23">
   <si>
     <t>"+"</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>&amp;func</t>
+  </si>
+  <si>
+    <t>" +u, -u"</t>
+  </si>
+  <si>
+    <t>"&amp;u"</t>
+  </si>
+  <si>
+    <t>"*u"</t>
+  </si>
+  <si>
+    <t>"~u"</t>
   </si>
 </sst>
 </file>
@@ -82,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +111,38 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,12 +150,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,8 +179,15 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -431,15 +488,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1671,19 +1733,153 @@
         <v>18</v>
       </c>
     </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" t="s">
+        <v>6</v>
+      </c>
+      <c r="M67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" t="s">
+        <v>5</v>
+      </c>
+      <c r="M71" t="s">
+        <v>7</v>
+      </c>
+      <c r="P71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>5</v>
+      </c>
+      <c r="P75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="M79" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="A70:N70"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A78:P78"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A18:N18"/>
+    <mergeCell ref="A25:N25"/>
+    <mergeCell ref="A66:N66"/>
     <mergeCell ref="A32:N32"/>
     <mergeCell ref="A37:N37"/>
     <mergeCell ref="A48:N48"/>
     <mergeCell ref="A59:N59"/>
     <mergeCell ref="A62:N62"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A18:N18"/>
-    <mergeCell ref="A25:N25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
